--- a/learnjunit/src/main/resources/service.testcase/servicecases.xlsx
+++ b/learnjunit/src/main/resources/service.testcase/servicecases.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\learnjunit\src\main\resources\service.testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937BCAC9-13C9-4DD5-B6DA-1905231050B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2877C0BF-B43A-4674-877E-4B94617B27D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="990" windowWidth="22125" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="1770" windowWidth="22125" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id(用例编号)</t>
   </si>
@@ -46,14 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobilephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://test.lemonban.com:8080/futureloan/mvc/api/member/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +66,22 @@
   </si>
   <si>
     <t>http://test.lemonban.com:8082/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"18330372028","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"18330372028","pwd":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobilephone":"18330372028","pwd":"111111"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -399,22 +407,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="59.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="42.375" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,70 +433,61 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>18330372028</v>
-      </c>
-      <c r="E2">
-        <v>123456</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>18330372028</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>18330372028</v>
-      </c>
-      <c r="E4">
-        <v>111111</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
